--- a/data1.xlsx
+++ b/data1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\URPATIDA\eclipse-workspace\Demo1\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YBENDALE\Yamini\jenkins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2911582B-7559-4AA2-948A-EB95DD591B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A30B47F-5FDC-4EDA-A8C0-6A202AC32798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>urwashi</t>
   </si>
@@ -48,16 +48,31 @@
   </si>
   <si>
     <t>Mumbai1</t>
+  </si>
+  <si>
+    <t>yamini</t>
+  </si>
+  <si>
+    <t>bendale</t>
+  </si>
+  <si>
+    <t>mumbai</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -399,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -438,7 +453,22 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/data1.xlsx
+++ b/data1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YBENDALE\Yamini\jenkins\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A30B47F-5FDC-4EDA-A8C0-6A202AC32798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22717BC1-16BF-4882-8115-529A3FD80993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
